--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_113.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_113.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,650 +488,636 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.217032967032967</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_8</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.162280701754386</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'E:min7', 'A:7', 'D']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(64.32, 71.94)]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(26.25, 38.856)]</t>
+          <t>[('0:00:55.151295', '0:01:00.155195')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:50.046698', '0:00:55.352457')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(134.22, 139.56)]</t>
+          <t>[('0:00:49.140000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_19</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2166666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['Db', 'Gb', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(36.4, 41.7)]</t>
+          <t>[['F', 'Bb', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(31.74, 33.88)]</t>
+          <t>[('0:00:00.344657', '0:00:07.314387')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:13.976734', '0:00:18.678775')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2435064935064935</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.119815668202765</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['F:maj', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72)]</t>
+          <t>[['A', 'A:7', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.24, 16.18)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:14.480000', '0:00:22.820000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:04.871315', '0:01:12.777709')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_44</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'F:7', 'C:7']]</t>
-        </is>
+          <t>isophonics_41</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_143</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08547008547008547</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Ab:7', 'Eb:7']]</t>
+          <t>[['G', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(38.493446, 42.696258)]</t>
+          <t>[['B', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(134.83, 135.77)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:56.279931', '0:01:00.633673')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:01.635324', '0:00:05.811360')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_266</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.115546218487395</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['Db', 'Eb', 'F']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.4, 13.72)]</t>
+          <t>[['F', 'G', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:01:06.991000', '0:01:10.637000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:43.301587', '0:00:46.122811')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_44</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06724137931034482</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
-        </is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(30.41, 35.04)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(46.99, 49.5)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:06.357029', '0:00:26.140430')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.419047619047619</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(46.06, 55.66)]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(23.04, 32.8)]</t>
+          <t>[('0:00:40.490000', '0:00:50.260000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:10.203514', '0:01:32.970680')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_57</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02543859649122807</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Gb', 'G:dim7', 'Db/5']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Ab', 'A:dim7', 'Eb']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(156.77, 157.87)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.6, 4.0)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:02.360000', '0:00:11.660000'), ('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3314393939393939</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.24, 9.28)]</t>
+          <t>[('0:01:09.840000', '0:01:21.680000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:03.260000', '0:00:20.100000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1459177764910249</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.94, 11.88)]</t>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.146875</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D'], ['A/3', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.722199, 26.760929), (65.81034, 71.679931)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(114.52, 115.66), (111.92, 115.36)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1366071428571429</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb', 'Bb/3']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(78.565, 87.795)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(25.942, 29.102)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(68.150589, 75.697074), (2.612267, 17.443474)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(157.84, 160.98), (154.76, 159.84)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2291666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Bb:maj', 'Bb:maj', 'G:min'], ['Bb:maj', 'G:min', 'C:min7'], ['Bb/3', 'Eb:maj', 'Bb/3']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'C/7', 'A:min'], ['C/7', 'A:min', 'D:min7'], ['C', 'F/5', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(49.16, 62.76), (69.521, 78.073), (38.041, 42.375)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.227, 21.36), (12.601, 27.418), (5.121, 12.601)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
